--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50511\Documents\workspace\project-folder\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BD0B8-048C-415B-BA00-7B45D1BD29E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B4E31A-8532-45BB-BEE2-D12E3F344909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="195">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -580,10 +580,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,173 +631,181 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>공연장명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연종료일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>공연시작일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_name</t>
+  </si>
+  <si>
+    <t>공연명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연정보를 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 에서 MongoDB 로 DBMS 전환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitterns96@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일목록 table 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_locdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_isHoliday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴일여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_dateName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일 목록을 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전유영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holidays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_of_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist_of_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_artist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(r_update_date, r_nickname)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가수이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지를 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 table 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_poster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>concert_place</t>
-  </si>
-  <si>
-    <t>공연장명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>공연종료일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>공연시작일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concert_poster</t>
-  </si>
-  <si>
-    <t>포스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concert_artist</t>
-  </si>
-  <si>
-    <t>concert_name</t>
-  </si>
-  <si>
-    <t>공연명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연정보를 저장할 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 에서 MongoDB 로 DBMS 전환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitterns96@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일목록 table 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_locdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y/N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_isHoliday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴일여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_dateName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일 목록을 저장할 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전유영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>holidays</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concert_of_interest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>artist_of_interest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concert_artist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY(r_update_date, r_nickname)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가수이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>artist_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지를 저장할 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 table 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1762,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862B38E-A4DF-4FD8-AAD4-089E98885ADD}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3631,7 +3635,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -3656,7 +3660,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -3667,7 +3671,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="17"/>
@@ -3677,7 +3681,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -3729,13 +3733,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>122</v>
@@ -3748,7 +3752,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3756,13 +3760,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>94</v>
@@ -4018,7 +4022,7 @@
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -4134,12 +4138,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4153,7 +4157,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4809,7 +4813,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -4834,7 +4838,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -4855,7 +4859,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -4907,13 +4911,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>122</v>
@@ -4926,7 +4930,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4940,12 +4944,14 @@
         <v>96</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -4957,18 +4963,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4990,7 +4998,9 @@
       <c r="F9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -5002,13 +5012,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>94</v>
@@ -5036,7 +5046,9 @@
       <c r="F11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -5059,7 +5071,9 @@
       <c r="F12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -5082,7 +5096,9 @@
       <c r="F13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -5105,7 +5121,9 @@
       <c r="F14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -5386,8 +5404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB1650C-B8B5-4BC4-A040-16150C885B8D}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6287,7 +6305,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -7255,7 +7273,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -7280,7 +7298,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -7291,7 +7309,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="17"/>
@@ -7301,7 +7319,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -7353,16 +7371,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>99</v>
@@ -7378,16 +7396,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>99</v>
@@ -7397,7 +7415,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7405,13 +7423,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>90</v>
@@ -7436,7 +7454,7 @@
         <v>92</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>90</v>
@@ -7662,10 +7680,10 @@
         <v>44886</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -7683,10 +7701,10 @@
         <v>44889</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -9680,7 +9698,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -10867,7 +10885,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -14424,7 +14442,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -15759,13 +15777,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>57</v>
@@ -16139,7 +16157,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16795,7 +16813,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -16841,7 +16859,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -16912,7 +16930,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16920,16 +16938,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>99</v>
@@ -16948,13 +16966,13 @@
         <v>66</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>99</v>
@@ -16969,13 +16987,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>94</v>
@@ -16992,16 +17010,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>99</v>
@@ -17017,16 +17035,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>99</v>
@@ -17042,16 +17060,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>99</v>
@@ -17067,16 +17085,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>99</v>
@@ -17242,7 +17260,7 @@
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BD0B8-048C-415B-BA00-7B45D1BD29E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31BF4CA-D0DF-4C7C-8EEF-067D05833481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -1762,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862B38E-A4DF-4FD8-AAD4-089E98885ADD}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -4134,12 +4134,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11373,7 +11373,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12548,7 +12548,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13742,8 +13742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D11E7D-B331-40B7-9C35-EEA0AE6011FF}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B945F3BE-4DB0-4AC3-A953-93283C657EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB7D01-A0A0-4987-BA98-7895AB9C2729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -2974,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1832B8-0B7E-4DC7-B0FC-6F53F512D9EB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4152,7 +4152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F41CEB6-C0B0-432E-8771-442736322A35}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB7D01-A0A0-4987-BA98-7895AB9C2729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A48A2-86F5-423C-9B42-96ABE7E7CC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="201">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -802,6 +802,30 @@
   </si>
   <si>
     <t>b_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO INCERMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(user_code)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1762,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862B38E-A4DF-4FD8-AAD4-089E98885ADD}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2517,28 +2541,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,43 +2568,46 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -2595,21 +2620,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>99</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2620,21 +2644,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2644,12 +2668,22 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="31"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2663,7 +2697,9 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -2974,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1832B8-0B7E-4DC7-B0FC-6F53F512D9EB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -12548,7 +12584,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13742,8 +13778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D11E7D-B331-40B7-9C35-EEA0AE6011FF}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16139,7 +16175,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7484C3-63A5-45D9-9448-F79E94046F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CA53B1-B919-4E09-BBEC-77E9EF894EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="2790" windowWidth="25380" windowHeight="13200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="207">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -844,6 +844,14 @@
   </si>
   <si>
     <t>delete_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(225)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1804,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862B38E-A4DF-4FD8-AAD4-089E98885ADD}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -12604,8 +12612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F95A67-83BB-4437-9E8C-769B804D26C5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13389,13 +13397,13 @@
         <v>154</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>153</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>95</v>
@@ -13411,20 +13419,18 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -13435,18 +13441,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -13458,13 +13466,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>142</v>
@@ -13483,16 +13491,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>95</v>
@@ -13508,13 +13516,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>142</v>
@@ -13532,11 +13540,11 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CA53B1-B919-4E09-BBEC-77E9EF894EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D7325-4D74-4618-A172-8C8CB1145BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2790" windowWidth="25380" windowHeight="13200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1815" windowWidth="25380" windowHeight="13200" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="205">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -252,14 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(256)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(256)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>concert_info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,10 +315,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>solo/duet/group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2022.12.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -852,6 +840,10 @@
   </si>
   <si>
     <t>VARCHAR(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solo/duo/group</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2469,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -2505,7 +2497,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -2515,7 +2507,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -2541,7 +2533,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -2567,16 +2559,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -2586,7 +2578,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2594,16 +2586,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
@@ -2619,16 +2611,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2642,22 +2634,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2669,16 +2661,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>34</v>
@@ -2694,16 +2686,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>34</v>
@@ -2719,16 +2711,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2907,7 +2899,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3734,7 +3726,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -3770,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -4873,7 +4865,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -4898,7 +4890,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -4909,7 +4901,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -4919,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -4945,7 +4937,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -4971,19 +4963,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>43</v>
@@ -4998,16 +4990,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -5260,7 +5252,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6051,7 +6043,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -6076,7 +6068,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -6087,7 +6079,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -6097,7 +6089,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -6123,7 +6115,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -6149,19 +6141,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>43</v>
@@ -6176,16 +6168,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -6199,16 +6191,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -6224,13 +6216,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -6244,16 +6236,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
@@ -6267,16 +6259,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -6293,13 +6285,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -6313,16 +6305,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6336,16 +6328,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -6494,7 +6486,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -7285,7 +7277,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -7310,7 +7302,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -7321,7 +7313,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -7331,7 +7323,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -7357,7 +7349,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -7383,16 +7375,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -7400,7 +7392,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7408,16 +7400,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -7431,16 +7423,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -7456,13 +7448,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -7476,16 +7468,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
@@ -7499,16 +7491,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -7527,7 +7519,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -7704,7 +7696,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8495,7 +8487,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -8520,7 +8512,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -8531,7 +8523,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -8541,7 +8533,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8567,7 +8559,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -8593,19 +8585,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="3"/>
@@ -8618,26 +8610,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8645,16 +8637,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
@@ -8673,13 +8665,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -8902,10 +8894,10 @@
         <v>44886</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8923,10 +8915,10 @@
         <v>44889</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -9744,7 +9736,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -9780,7 +9772,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -9809,20 +9801,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -10920,7 +10912,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -10931,7 +10923,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -10941,7 +10933,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -10967,7 +10959,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -10996,20 +10988,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -11043,7 +11035,7 @@
         <v>51</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>48</v>
@@ -11060,7 +11052,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -12082,7 +12074,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -12107,7 +12099,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -12118,7 +12110,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -12128,7 +12120,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -12154,7 +12146,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -12183,20 +12175,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -12211,13 +12203,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>33</v>
@@ -12227,13 +12219,13 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L7" s="14"/>
     </row>
@@ -12247,7 +12239,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -12613,7 +12605,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13269,7 +13261,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -13294,7 +13286,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -13305,7 +13297,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -13315,7 +13307,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -13341,7 +13333,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -13370,16 +13362,16 @@
         <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>43</v>
@@ -13394,19 +13386,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -13419,16 +13411,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -13441,19 +13433,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -13466,19 +13458,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="9"/>
@@ -13491,19 +13483,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -13516,19 +13508,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -13706,7 +13698,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -14533,7 +14525,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -14569,7 +14561,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -14898,10 +14890,10 @@
         <v>44896</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -15692,7 +15684,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -15717,7 +15709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -15728,7 +15720,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -15738,7 +15730,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -15764,7 +15756,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -15821,13 +15813,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>33</v>
@@ -15837,13 +15829,13 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L7" s="14"/>
     </row>
@@ -15857,7 +15849,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -16222,8 +16214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B6CFB9-3964-4673-9D58-62B30CDDACBA}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16879,7 +16871,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -16904,7 +16896,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -16915,7 +16907,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -16925,7 +16917,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -16951,7 +16943,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -16977,13 +16969,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>33</v>
@@ -17002,13 +16994,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>32</v>
@@ -17027,13 +17019,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>33</v>
@@ -17044,7 +17036,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="26" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17052,16 +17044,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -17075,16 +17067,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -17092,7 +17084,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17100,13 +17092,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>33</v>
@@ -18088,7 +18080,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>14</v>
@@ -18113,7 +18105,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -18124,7 +18116,7 @@
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="16"/>
@@ -18134,7 +18126,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -18160,7 +18152,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -18186,13 +18178,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>33</v>
@@ -18202,13 +18194,13 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -18252,7 +18244,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D7325-4D74-4618-A172-8C8CB1145BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88882C40-27BE-4716-B86A-DC50F7021147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1815" windowWidth="25380" windowHeight="13200" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="27870" windowHeight="13200" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="207">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -844,6 +844,14 @@
   </si>
   <si>
     <t>solo/duo/group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_loc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -851,6 +859,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000\-000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1323,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1427,6 +1438,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2463,20 +2477,20 @@
       <c r="C2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -2488,36 +2502,36 @@
       <c r="C3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3692,20 +3706,20 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -3717,36 +3731,36 @@
       <c r="C3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4867,20 +4881,20 @@
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -4892,36 +4906,36 @@
       <c r="C3" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6045,20 +6059,20 @@
       <c r="C2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -6070,36 +6084,36 @@
       <c r="C3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7279,20 +7293,20 @@
       <c r="C2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -7304,36 +7318,36 @@
       <c r="C3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8489,20 +8503,20 @@
       <c r="C2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44886</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -8514,36 +8528,36 @@
       <c r="C3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -9702,20 +9716,20 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -9727,36 +9741,36 @@
       <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -10889,20 +10903,20 @@
       <c r="C2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -10914,36 +10928,36 @@
       <c r="C3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -12076,20 +12090,20 @@
       <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -12101,36 +12115,36 @@
       <c r="C3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -12605,7 +12619,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13263,20 +13277,20 @@
       <c r="C2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -13288,36 +13302,36 @@
       <c r="C3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -13362,17 +13376,15 @@
         <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="33" t="s">
         <v>43</v>
       </c>
@@ -13507,20 +13519,20 @@
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>92</v>
+      <c r="C12" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -13532,11 +13544,19 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -14491,20 +14511,20 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -14516,36 +14536,36 @@
       <c r="C3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -15686,20 +15706,20 @@
       <c r="C2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -15711,36 +15731,36 @@
       <c r="C3" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -16215,7 +16235,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16873,20 +16893,20 @@
       <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44896</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -16898,36 +16918,36 @@
       <c r="C3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -16980,10 +17000,10 @@
       <c r="F6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -18082,20 +18102,20 @@
       <c r="C2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41">
+      <c r="I2" s="40"/>
+      <c r="J2" s="42">
         <v>44897</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
@@ -18107,36 +18127,36 @@
       <c r="C3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88882C40-27BE-4716-B86A-DC50F7021147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57DD167-A453-41D2-95A5-7DD5D07E7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="27870" windowHeight="13200" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2040" windowWidth="27870" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="207">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862B38E-A4DF-4FD8-AAD4-089E98885ADD}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2686,9 +2686,7 @@
       <c r="F10" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2711,9 +2709,7 @@
       <c r="F11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="G11" s="9"/>
       <c r="H11" s="30"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -9058,7 +9054,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12618,8 +12614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F95A67-83BB-4437-9E8C-769B804D26C5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57DD167-A453-41D2-95A5-7DD5D07E7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC694E-F1A9-4158-B5F4-747F93E625C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2040" windowWidth="27870" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="40170" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="209">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -852,6 +852,14 @@
   </si>
   <si>
     <t>concert_loc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_ticketing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1818,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862B38E-A4DF-4FD8-AAD4-089E98885ADD}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12614,8 +12622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F95A67-83BB-4437-9E8C-769B804D26C5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13541,16 +13549,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>202</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -13563,10 +13571,18 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC694E-F1A9-4158-B5F4-747F93E625C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60300E8-3416-4F2B-8A15-106CCFD28EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="40170" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="585" windowWidth="40170" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="213">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -860,6 +860,22 @@
   </si>
   <si>
     <t>concert_ticketing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_views</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12623,7 +12639,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13572,16 +13588,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -13594,10 +13610,18 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -13609,10 +13633,18 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60300E8-3416-4F2B-8A15-106CCFD28EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97311559-0AEC-42C5-94BB-8BD76C37C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="585" windowWidth="40170" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="1095" windowWidth="40170" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="213">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,14 +311,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주요장르</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>고정문자열(12)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -626,101 +618,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>concert_name</t>
+  </si>
+  <si>
+    <t>공연명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연정보를 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 에서 MongoDB 로 DBMS 전환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitterns96@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일목록 table 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_locdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_isHoliday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴일여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_dateName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일 목록을 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전유영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holidays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_of_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist_of_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>concert_artist</t>
-  </si>
-  <si>
-    <t>concert_name</t>
-  </si>
-  <si>
-    <t>공연명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연정보를 저장할 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 에서 MongoDB 로 DBMS 전환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitterns96@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일목록 table 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_locdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y/N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_isHoliday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴일여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_dateName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일 목록을 저장할 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전유영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>holidays</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concert_of_interest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>artist_of_interest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concert_artist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -876,6 +865,18 @@
   </si>
   <si>
     <t>concert_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2499,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -2535,7 +2536,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -2545,7 +2546,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -2571,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -2597,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -2616,7 +2617,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2624,16 +2625,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
@@ -2649,16 +2650,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2672,22 +2673,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2699,16 +2700,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -2722,16 +2723,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="30"/>
@@ -2745,16 +2746,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2933,7 +2934,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3760,7 +3761,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -3796,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -4899,7 +4900,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -4924,7 +4925,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -4935,7 +4936,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -4945,7 +4946,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -4971,7 +4972,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -4997,19 +4998,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>43</v>
@@ -5024,16 +5025,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6077,7 +6078,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -6102,7 +6103,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -6113,7 +6114,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -6123,7 +6124,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -6149,7 +6150,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -6175,19 +6176,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>43</v>
@@ -6202,16 +6203,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -6225,16 +6226,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -6250,13 +6251,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -6270,16 +6271,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
@@ -6293,16 +6294,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -6319,13 +6320,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -6339,16 +6340,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6362,16 +6363,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -6520,7 +6521,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -7311,7 +7312,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -7336,7 +7337,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -7347,7 +7348,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -7357,7 +7358,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -7383,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -7409,16 +7410,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -7426,7 +7427,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7434,16 +7435,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -7457,16 +7458,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -7482,13 +7483,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -7502,16 +7503,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
@@ -7525,16 +7526,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -7553,7 +7554,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -7730,7 +7731,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8521,7 +8522,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -8546,7 +8547,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -8557,7 +8558,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -8567,7 +8568,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -8593,7 +8594,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -8619,19 +8620,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="3"/>
@@ -8644,26 +8645,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8671,16 +8672,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
@@ -8699,13 +8700,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -8928,10 +8929,10 @@
         <v>44886</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8949,10 +8950,10 @@
         <v>44889</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -9770,7 +9771,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -9806,7 +9807,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -9835,20 +9836,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -10946,7 +10947,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -10957,7 +10958,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -10993,7 +10994,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -11022,20 +11023,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -11452,7 +11453,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12133,7 +12134,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -12144,7 +12145,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -12180,7 +12181,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -12209,20 +12210,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -12253,7 +12254,7 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>63</v>
@@ -12639,7 +12640,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13295,7 +13296,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -13331,7 +13332,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -13341,7 +13342,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -13367,7 +13368,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -13396,13 +13397,13 @@
         <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="33" t="s">
@@ -13418,19 +13419,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -13443,16 +13444,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -13465,69 +13466,73 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -13540,16 +13545,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>34</v>
@@ -13565,16 +13570,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -13588,16 +13593,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -13611,18 +13616,20 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -13633,18 +13640,10 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -13762,7 +13761,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -14589,7 +14588,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -14625,7 +14624,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -14954,10 +14953,10 @@
         <v>44896</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -15748,7 +15747,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -15773,7 +15772,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -15784,7 +15783,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -15794,7 +15793,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -15820,7 +15819,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -15893,7 +15892,7 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>64</v>
@@ -15913,7 +15912,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -16279,7 +16278,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16971,7 +16970,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -17007,7 +17006,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -17064,7 +17063,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>32</v>
@@ -17089,7 +17088,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>33</v>
@@ -17100,7 +17099,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17108,16 +17107,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -17134,13 +17133,13 @@
         <v>68</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -17148,25 +17147,17 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="14" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -18144,7 +18135,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -18169,7 +18160,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -18180,7 +18171,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -18190,7 +18181,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -18216,7 +18207,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -18258,7 +18249,7 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>64</v>
@@ -18308,7 +18299,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97311559-0AEC-42C5-94BB-8BD76C37C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D64A7D-8422-4DCF-8D43-861FEC02824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1095" windowWidth="40170" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="214">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -877,6 +877,10 @@
   </si>
   <si>
     <t>YYYY-MM-DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10266,7 +10270,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11054,13 +11058,13 @@
         <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
@@ -11453,7 +11457,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12241,13 +12245,13 @@
         <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
@@ -12639,7 +12643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F95A67-83BB-4437-9E8C-769B804D26C5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -15090,8 +15094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D11E7D-B331-40B7-9C35-EEA0AE6011FF}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15848,13 +15852,13 @@
         <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
@@ -15879,13 +15883,13 @@
         <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
@@ -17479,7 +17483,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18236,13 +18240,13 @@
         <v>59</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>

--- a/document/테이블명세.xlsx
+++ b/document/테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D64A7D-8422-4DCF-8D43-861FEC02824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA15496-E0B1-43FD-8730-3E2159A83D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -1848,7 +1848,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C6" sqref="C6:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12643,8 +12643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F95A67-83BB-4437-9E8C-769B804D26C5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15094,7 +15094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D11E7D-B331-40B7-9C35-EEA0AE6011FF}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
